--- a/SourceCode/2024/June_Basics/Ragini_Basics/Task 16/Student.xlsx
+++ b/SourceCode/2024/June_Basics/Ragini_Basics/Task 16/Student.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>Student Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marks Scored</x:t>
+  </x:si>
   <x:si>
     <x:t>Pradeepa</x:t>
   </x:si>
@@ -401,40 +410,51 @@
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="n">
-        <x:v>100</x:v>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
         <x:v>96</x:v>
       </x:c>
     </x:row>
